--- a/调配结果.xlsx
+++ b/调配结果.xlsx
@@ -478,25 +478,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06379</v>
+        <v>0.00729</v>
       </c>
       <c r="C2" t="n">
-        <v>48.37187</v>
+        <v>1e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>13.40408</v>
+        <v>0.01886</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00403</v>
+        <v>0.66992</v>
       </c>
       <c r="F2" t="n">
-        <v>8.112730000000001</v>
+        <v>2.19536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05156</v>
+        <v>80.10854999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03768</v>
+        <v>20.09966</v>
       </c>
       <c r="C3" t="n">
-        <v>26.55524</v>
+        <v>15.55081</v>
       </c>
       <c r="D3" t="n">
-        <v>9.782679999999999</v>
+        <v>4e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.76332</v>
+        <v>30.11017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00163</v>
+        <v>24.2393</v>
       </c>
       <c r="G3" t="n">
-        <v>31.85944</v>
+        <v>1e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06049</v>
+        <v>0.02999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00124</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.69609</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04963</v>
+        <v>30.96891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00569</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.18686</v>
+        <v>0.00109</v>
       </c>
       <c r="H4" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -562,25 +562,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0038</v>
+        <v>10.03395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75469</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1e-05</v>
+        <v>0.00018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554</v>
+        <v>75.62165</v>
       </c>
       <c r="F5" t="n">
-        <v>7.7243</v>
+        <v>11.34416</v>
       </c>
       <c r="G5" t="n">
-        <v>24.46943</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -590,25 +590,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.61501</v>
+        <v>36.24425</v>
       </c>
       <c r="C6" t="n">
-        <v>73.47920000000001</v>
+        <v>5.39045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00688</v>
+        <v>6.43442</v>
       </c>
       <c r="E6" t="n">
-        <v>10.81862</v>
+        <v>13.85575</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04941</v>
+        <v>1e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03088</v>
+        <v>33.07512</v>
       </c>
       <c r="H6" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.22684</v>
+        <v>192.58485</v>
       </c>
       <c r="C7" t="n">
-        <v>221.83776</v>
+        <v>181.05872</v>
       </c>
       <c r="D7" t="n">
-        <v>288.11028</v>
+        <v>193.5465</v>
       </c>
       <c r="E7" t="n">
-        <v>196.31705</v>
+        <v>169.7736</v>
       </c>
       <c r="F7" t="n">
-        <v>270.10624</v>
+        <v>266.22117</v>
       </c>
       <c r="G7" t="n">
-        <v>162.40183</v>
+        <v>256.81516</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -644,22 +644,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" t="n">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="D8" t="n">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="F8" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="G8" t="n">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -721,22 +721,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="C2" t="n">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="D2" t="n">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="E2" t="n">
-        <v>767</v>
+        <v>427</v>
       </c>
       <c r="F2" t="n">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="G2" t="n">
-        <v>646</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>631</v>
+        <v>446</v>
       </c>
       <c r="C3" t="n">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="D3" t="n">
-        <v>342</v>
+        <v>700</v>
       </c>
       <c r="E3" t="n">
-        <v>325</v>
+        <v>558</v>
       </c>
       <c r="F3" t="n">
-        <v>701</v>
+        <v>430</v>
       </c>
       <c r="G3" t="n">
-        <v>343</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C4" t="n">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="D4" t="n">
-        <v>441</v>
+        <v>737</v>
       </c>
       <c r="E4" t="n">
-        <v>619</v>
+        <v>357</v>
       </c>
       <c r="F4" t="n">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="G4" t="n">
-        <v>533</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5">
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>581</v>
+        <v>406</v>
       </c>
       <c r="C5" t="n">
-        <v>466</v>
+        <v>791</v>
       </c>
       <c r="D5" t="n">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="E5" t="n">
-        <v>487</v>
+        <v>351</v>
       </c>
       <c r="F5" t="n">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="G5" t="n">
-        <v>308</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397</v>
+        <v>513</v>
       </c>
       <c r="C6" t="n">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="D6" t="n">
-        <v>715</v>
+        <v>447</v>
       </c>
       <c r="E6" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="F6" t="n">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="G6" t="n">
-        <v>785</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">

--- a/调配结果.xlsx
+++ b/调配结果.xlsx
@@ -478,25 +478,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00729</v>
+        <v>9.79757</v>
       </c>
       <c r="C2" t="n">
-        <v>1e-05</v>
+        <v>35.49965</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01886</v>
+        <v>11.36269</v>
       </c>
       <c r="E2" t="n">
-        <v>0.66992</v>
+        <v>4.75167</v>
       </c>
       <c r="F2" t="n">
-        <v>2.19536</v>
+        <v>19.80252</v>
       </c>
       <c r="G2" t="n">
-        <v>80.10854999999999</v>
+        <v>13.78589</v>
       </c>
       <c r="H2" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.09966</v>
+        <v>7.64287</v>
       </c>
       <c r="C3" t="n">
-        <v>15.55081</v>
+        <v>33.35142</v>
       </c>
       <c r="D3" t="n">
-        <v>4e-05</v>
+        <v>9.46936</v>
       </c>
       <c r="E3" t="n">
-        <v>30.11017</v>
+        <v>2.94468</v>
       </c>
       <c r="F3" t="n">
-        <v>24.2393</v>
+        <v>18.04029</v>
       </c>
       <c r="G3" t="n">
-        <v>1e-05</v>
+        <v>11.55139</v>
       </c>
       <c r="H3" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02999</v>
+        <v>3.31083</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.26851</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.60558</v>
       </c>
       <c r="E4" t="n">
-        <v>30.96891</v>
+        <v>-0.67379</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.87969</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00109</v>
+        <v>7.60919</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -562,25 +562,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.03395</v>
+        <v>0.59426</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>26.43082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00018</v>
+        <v>2.57815</v>
       </c>
       <c r="E5" t="n">
-        <v>75.62165</v>
+        <v>-3.82995</v>
       </c>
       <c r="F5" t="n">
-        <v>11.34416</v>
+        <v>10.82106</v>
       </c>
       <c r="G5" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>4.40566</v>
       </c>
       <c r="H5" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -590,25 +590,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.24425</v>
+        <v>0.60543</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39045</v>
+        <v>26.64205</v>
       </c>
       <c r="D6" t="n">
-        <v>6.43442</v>
+        <v>2.73546</v>
       </c>
       <c r="E6" t="n">
-        <v>13.85575</v>
+        <v>-3.49525</v>
       </c>
       <c r="F6" t="n">
-        <v>1e-05</v>
+        <v>10.88699</v>
       </c>
       <c r="G6" t="n">
-        <v>33.07512</v>
+        <v>4.62531</v>
       </c>
       <c r="H6" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>192.58485</v>
+        <v>205.04904</v>
       </c>
       <c r="C7" t="n">
-        <v>181.05872</v>
+        <v>230.80756</v>
       </c>
       <c r="D7" t="n">
-        <v>193.5465</v>
+        <v>207.24877</v>
       </c>
       <c r="E7" t="n">
-        <v>169.7736</v>
+        <v>200.30265</v>
       </c>
       <c r="F7" t="n">
-        <v>266.22117</v>
+        <v>215.56944</v>
       </c>
       <c r="G7" t="n">
-        <v>256.81516</v>
+        <v>209.02255</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -644,22 +644,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="D8" t="n">
+        <v>239</v>
+      </c>
+      <c r="E8" t="n">
         <v>200</v>
       </c>
-      <c r="E8" t="n">
-        <v>321</v>
-      </c>
       <c r="F8" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G8" t="n">
-        <v>370</v>
+        <v>251</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -721,22 +721,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="C2" t="n">
-        <v>628</v>
+        <v>332</v>
       </c>
       <c r="D2" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="E2" t="n">
-        <v>427</v>
+        <v>561</v>
       </c>
       <c r="F2" t="n">
-        <v>475</v>
+        <v>603</v>
       </c>
       <c r="G2" t="n">
-        <v>451</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446</v>
+        <v>548</v>
       </c>
       <c r="C3" t="n">
-        <v>438</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="E3" t="n">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="F3" t="n">
-        <v>430</v>
+        <v>659</v>
       </c>
       <c r="G3" t="n">
-        <v>715</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588</v>
+        <v>739</v>
       </c>
       <c r="C4" t="n">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D4" t="n">
-        <v>737</v>
+        <v>379</v>
       </c>
       <c r="E4" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F4" t="n">
-        <v>736</v>
+        <v>654</v>
       </c>
       <c r="G4" t="n">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="C5" t="n">
-        <v>791</v>
+        <v>548</v>
       </c>
       <c r="D5" t="n">
-        <v>546</v>
+        <v>407</v>
       </c>
       <c r="E5" t="n">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="F5" t="n">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="G5" t="n">
-        <v>510</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513</v>
+        <v>716</v>
       </c>
       <c r="C6" t="n">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="D6" t="n">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="E6" t="n">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="F6" t="n">
-        <v>590</v>
+        <v>403</v>
       </c>
       <c r="G6" t="n">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">

--- a/调配结果.xlsx
+++ b/调配结果.xlsx
@@ -478,25 +478,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.79757</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.49965</v>
+        <v>2.15011</v>
       </c>
       <c r="D2" t="n">
-        <v>11.36269</v>
+        <v>74.21243</v>
       </c>
       <c r="E2" t="n">
-        <v>4.75167</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.80252</v>
+        <v>-1.50136</v>
       </c>
       <c r="G2" t="n">
-        <v>13.78589</v>
+        <v>13.13882</v>
       </c>
       <c r="H2" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.64287</v>
+        <v>-3.00741</v>
       </c>
       <c r="C3" t="n">
-        <v>33.35142</v>
+        <v>556.75669</v>
       </c>
       <c r="D3" t="n">
-        <v>9.46936</v>
+        <v>-48.45086</v>
       </c>
       <c r="E3" t="n">
-        <v>2.94468</v>
+        <v>-874.10114</v>
       </c>
       <c r="F3" t="n">
-        <v>18.04029</v>
+        <v>310.29863</v>
       </c>
       <c r="G3" t="n">
-        <v>11.55139</v>
+        <v>113.5041</v>
       </c>
       <c r="H3" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.31083</v>
+        <v>0.01569</v>
       </c>
       <c r="C4" t="n">
-        <v>29.26851</v>
+        <v>-13.54864</v>
       </c>
       <c r="D4" t="n">
-        <v>5.60558</v>
+        <v>-4.52645</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.67379</v>
+        <v>5.4303</v>
       </c>
       <c r="F4" t="n">
-        <v>13.87969</v>
+        <v>-4.67336</v>
       </c>
       <c r="G4" t="n">
-        <v>7.60919</v>
+        <v>80.30246</v>
       </c>
       <c r="H4" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -562,25 +562,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.59426</v>
+        <v>276.90972</v>
       </c>
       <c r="C5" t="n">
-        <v>26.43082</v>
+        <v>-64.71957999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>2.57815</v>
+        <v>-237.10718</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.82995</v>
+        <v>156.7336</v>
       </c>
       <c r="F5" t="n">
-        <v>10.82106</v>
+        <v>-85.37143</v>
       </c>
       <c r="G5" t="n">
-        <v>4.40566</v>
+        <v>-6.44512</v>
       </c>
       <c r="H5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -590,25 +590,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.60543</v>
+        <v>-250.44432</v>
       </c>
       <c r="C6" t="n">
-        <v>26.64205</v>
+        <v>35.1087</v>
       </c>
       <c r="D6" t="n">
-        <v>2.73546</v>
+        <v>-8.78608</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.49525</v>
+        <v>-0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.88699</v>
+        <v>257.35077</v>
       </c>
       <c r="G6" t="n">
-        <v>4.62531</v>
+        <v>1.77093</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.04904</v>
+        <v>368.52633</v>
       </c>
       <c r="C7" t="n">
-        <v>230.80756</v>
+        <v>-272.74728</v>
       </c>
       <c r="D7" t="n">
-        <v>207.24877</v>
+        <v>606.65813</v>
       </c>
       <c r="E7" t="n">
-        <v>200.30265</v>
+        <v>1039.93724</v>
       </c>
       <c r="F7" t="n">
-        <v>215.56944</v>
+        <v>-101.10324</v>
       </c>
       <c r="G7" t="n">
-        <v>209.02255</v>
+        <v>183.72882</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -644,22 +644,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="C8" t="n">
+        <v>243</v>
+      </c>
+      <c r="D8" t="n">
         <v>382</v>
       </c>
-      <c r="D8" t="n">
-        <v>239</v>
-      </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="F8" t="n">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="G8" t="n">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -721,22 +721,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>490</v>
+        <v>715</v>
       </c>
       <c r="C2" t="n">
-        <v>332</v>
+        <v>513</v>
       </c>
       <c r="D2" t="n">
-        <v>684</v>
+        <v>617</v>
       </c>
       <c r="E2" t="n">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="F2" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G2" t="n">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>738</v>
+        <v>427</v>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>541</v>
       </c>
       <c r="F3" t="n">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="G3" t="n">
-        <v>575</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="C4" t="n">
-        <v>778</v>
+        <v>370</v>
       </c>
       <c r="D4" t="n">
-        <v>379</v>
+        <v>766</v>
       </c>
       <c r="E4" t="n">
-        <v>347</v>
+        <v>666</v>
       </c>
       <c r="F4" t="n">
-        <v>654</v>
+        <v>311</v>
       </c>
       <c r="G4" t="n">
-        <v>345</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="C5" t="n">
-        <v>548</v>
+        <v>470</v>
       </c>
       <c r="D5" t="n">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="E5" t="n">
-        <v>480</v>
+        <v>694</v>
       </c>
       <c r="F5" t="n">
-        <v>545</v>
+        <v>416</v>
       </c>
       <c r="G5" t="n">
-        <v>722</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C6" t="n">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="D6" t="n">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="E6" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F6" t="n">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="G6" t="n">
-        <v>388</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
